--- a/EngineeringDesign/Engineering Design f21/decision matricies.xlsx
+++ b/EngineeringDesign/Engineering Design f21/decision matricies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacdw\Documents\Fall-2021\Engineering Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacdw\Documents\Spring-2022\EngineeringDesign\Engineering Design f21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595D4277-0C87-41EB-B278-D77DCC18568F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D022FBFB-01B6-4AF5-9EF8-CFDF2A1240C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{5473DB0B-447F-4076-83ED-0FFBB014FFB9}"/>
   </bookViews>
@@ -277,7 +277,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +308,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -354,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -371,6 +377,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -381,16 +388,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     </dxf>
@@ -430,6 +434,9 @@
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -447,7 +454,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B9FB45EE-98EB-4C9F-AD23-D92600F3BA0C}" name="Table3" displayName="Table3" ref="B3:H6" totalsRowShown="0">
   <autoFilter ref="B3:H6" xr:uid="{B9FB45EE-98EB-4C9F-AD23-D92600F3BA0C}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{47C42205-D8D2-4079-A146-3BACA81A6DA2}" name="Controller type" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{47C42205-D8D2-4079-A146-3BACA81A6DA2}" name="Controller type" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{B2478160-8215-41F8-B2E7-030B23E9BE37}" name="Cost (2)"/>
     <tableColumn id="3" xr3:uid="{6B4ADCFC-125B-4761-8193-7B1423CDA5E4}" name="Speed (1)"/>
     <tableColumn id="4" xr3:uid="{F6624239-B9E5-4841-B415-983173ACEC1D}" name="I/O (3)"/>
@@ -465,13 +472,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{17174E52-1B76-4A3C-B0FA-ABDE9AA0FA80}" name="Table35" displayName="Table35" ref="B14:H18" totalsRowShown="0">
   <autoFilter ref="B14:H18" xr:uid="{17174E52-1B76-4A3C-B0FA-ABDE9AA0FA80}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D2B05B9C-F4A2-4169-A7B3-8DF1960B395C}" name="System" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{D2B05B9C-F4A2-4169-A7B3-8DF1960B395C}" name="System" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{DB921CFF-79D2-44EF-98FF-7ABC82ACE118}" name="Cost (4)"/>
     <tableColumn id="3" xr3:uid="{A511C268-02E2-422A-9AEE-6425030FA439}" name="Power Consumption (2)"/>
     <tableColumn id="4" xr3:uid="{AAF6ADF2-985B-49E3-82F6-1DDDBDDF903B}" name="Size (4)"/>
     <tableColumn id="5" xr3:uid="{02729096-F3F4-4F13-A4A8-47FE7CA09C1B}" name="Noise (1)"/>
     <tableColumn id="6" xr3:uid="{8183B501-DFC6-4BF8-97E2-7392D54718FD}" name="Heat Output (3)"/>
-    <tableColumn id="7" xr3:uid="{6BA58A26-3B2D-4C0E-8A6F-1369A0DF2707}" name="Total" dataDxfId="12">
+    <tableColumn id="7" xr3:uid="{6BA58A26-3B2D-4C0E-8A6F-1369A0DF2707}" name="Total" dataDxfId="11">
       <calculatedColumnFormula>Table35[[#This Row],[Cost (4)]]*4 + Table35[[#This Row],[Power Consumption (2)]]*2 + Table35[[#This Row],[Size (4)]]*4 + Table35[[#This Row],[Noise (1)]] + Table35[[#This Row],[Heat Output (3)]]*3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -483,13 +490,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4532725D-0F43-4456-8744-470CB88CA25B}" name="Table356" displayName="Table356" ref="B24:H28" totalsRowShown="0">
   <autoFilter ref="B24:H28" xr:uid="{4532725D-0F43-4456-8744-470CB88CA25B}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{BA082E7E-C4A2-48B2-9909-CAD0A767B15A}" name="System" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{BA082E7E-C4A2-48B2-9909-CAD0A767B15A}" name="System" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{EC456378-6D6A-4414-B077-CFF82ED9978C}" name="Cost (5)"/>
     <tableColumn id="3" xr3:uid="{FD6E3BC0-E2F8-4AB9-8DD5-69CDB373B25C}" name="Power Consumption (2)"/>
     <tableColumn id="4" xr3:uid="{E1DEB684-9C53-4B96-8CDE-9171F13538BE}" name="Size (4)"/>
     <tableColumn id="5" xr3:uid="{18FA4428-4A0A-4AA8-9BF0-70CC96A19022}" name="Simplicity (3)"/>
     <tableColumn id="6" xr3:uid="{5FFFB6AA-3403-4A06-870C-155AA08B9395}" name="cooling(3)"/>
-    <tableColumn id="7" xr3:uid="{E398BCBF-036A-4714-A69F-4DC5C5679AD8}" name="Total" dataDxfId="10">
+    <tableColumn id="7" xr3:uid="{E398BCBF-036A-4714-A69F-4DC5C5679AD8}" name="Total" dataDxfId="9">
       <calculatedColumnFormula>Table356[[#This Row],[Cost (5)]]*5 + Table356[[#This Row],[Power Consumption (2)]]*2 + Table356[[#This Row],[Size (4)]]*4 + Table356[[#This Row],[Simplicity (3)]]*3 + Table356[[#This Row],[cooling(3)]]*3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -501,11 +508,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AF7A016F-CBCD-44C1-AAC2-84D13A3C505C}" name="Table3567" displayName="Table3567" ref="B36:F40" totalsRowShown="0">
   <autoFilter ref="B36:F40" xr:uid="{AF7A016F-CBCD-44C1-AAC2-84D13A3C505C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{82ACC5E5-87AE-4FFA-A99C-A8179EE8E709}" name="Sensor" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{82ACC5E5-87AE-4FFA-A99C-A8179EE8E709}" name="Sensor" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{0BECCC9F-FD75-4180-8AA6-CC037C35360E}" name="Cost (2)"/>
     <tableColumn id="3" xr3:uid="{58B6F959-2C02-4BD4-B795-6C82188ED334}" name="Response time (2)"/>
     <tableColumn id="4" xr3:uid="{0D2EED59-B812-4FF1-A952-445DF4C11934}" name="Accuracy(5)"/>
-    <tableColumn id="7" xr3:uid="{3AC70A05-AB88-444A-86AA-7D6E20EFDDA4}" name="Total" dataDxfId="8">
+    <tableColumn id="7" xr3:uid="{3AC70A05-AB88-444A-86AA-7D6E20EFDDA4}" name="Total" dataDxfId="7">
       <calculatedColumnFormula>Table3567[[#This Row],[Cost (2)]]*2 + Table3567[[#This Row],[Response time (2)]]*2 + Table3567[[#This Row],[Accuracy(5)]]*5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -517,13 +524,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{36F5ABBA-F464-47C0-924B-6D6B88ED707A}" name="Table3568" displayName="Table3568" ref="B45:H49" totalsRowShown="0">
   <autoFilter ref="B45:H49" xr:uid="{36F5ABBA-F464-47C0-924B-6D6B88ED707A}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0D4B557D-6F45-4F4B-8144-9F6465A298C0}" name="Light" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{0D4B557D-6F45-4F4B-8144-9F6465A298C0}" name="Light" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{A2F38A5A-F9AC-4527-A63E-39EDEF73D0E3}" name="Cost (3)"/>
     <tableColumn id="3" xr3:uid="{C18F5621-44D1-44B6-83E9-3B3C7EE5A072}" name="Simplicity (2)"/>
     <tableColumn id="4" xr3:uid="{E8039127-0744-4772-9D45-4A9A00C1A61D}" name="Size (4)"/>
     <tableColumn id="5" xr3:uid="{83144251-FF6D-46EA-8034-B186699BED70}" name="Brightness (2)"/>
     <tableColumn id="6" xr3:uid="{BD5C4951-293A-4164-AD12-B3A1425C795C}" name="Heat Output(3)"/>
-    <tableColumn id="7" xr3:uid="{5BE4FDF9-5671-46D5-AEE5-6A96BF37590A}" name="Total" dataDxfId="6">
+    <tableColumn id="7" xr3:uid="{5BE4FDF9-5671-46D5-AEE5-6A96BF37590A}" name="Total" dataDxfId="5">
       <calculatedColumnFormula>Table3568[[#This Row],[Cost (3)]]*3 + Table3568[[#This Row],[Simplicity (2)]]*2 + Table3568[[#This Row],[Size (4)]]*4 + Table3568[[#This Row],[Brightness (2)]]*2 + Table3568[[#This Row],[Heat Output(3)]]*3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -535,13 +542,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E6FD6DAC-9FFF-4AD5-B079-7C341B09E884}" name="Table35689" displayName="Table35689" ref="B57:H61" totalsRowShown="0">
   <autoFilter ref="B57:H61" xr:uid="{E6FD6DAC-9FFF-4AD5-B079-7C341B09E884}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{234C8EC5-1C70-4D93-A935-68949D5D1D2C}" name="Humidifier" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{234C8EC5-1C70-4D93-A935-68949D5D1D2C}" name="Humidifier" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{FAB9DC2B-4251-4088-99C9-9AA328F6FCDD}" name="Cost (4)"/>
     <tableColumn id="3" xr3:uid="{CB9533A3-8C46-4FE7-8A00-4DD2EF77807C}" name="Power Consumption (2)"/>
     <tableColumn id="4" xr3:uid="{E1600A7D-FC20-455A-A12C-CD24FBA89817}" name="Size (5)"/>
     <tableColumn id="5" xr3:uid="{AAD82A93-F7CC-4E3D-83BF-AB2561C6BEFF}" name="Simplicity (3)"/>
     <tableColumn id="6" xr3:uid="{38D6765C-8758-42E4-B36A-334E7DC8CE78}" name="Humidity Output(3)"/>
-    <tableColumn id="7" xr3:uid="{EBE27E69-F4FC-4847-A68D-99DA2A8E0474}" name="Total" dataDxfId="4">
+    <tableColumn id="7" xr3:uid="{EBE27E69-F4FC-4847-A68D-99DA2A8E0474}" name="Total" dataDxfId="3">
       <calculatedColumnFormula>Table35689[[#This Row],[Cost (4)]]*4 + Table35689[[#This Row],[Power Consumption (2)]]*2 + Table35689[[#This Row],[Size (5)]]*5 + Table35689[[#This Row],[Simplicity (3)]]*3 + Table35689[[#This Row],[Humidity Output(3)]]*3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -553,13 +560,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5A27D528-8936-4A28-9D15-3C4A7289F5B1}" name="Table3568910" displayName="Table3568910" ref="B68:H72" totalsRowShown="0">
   <autoFilter ref="B68:H72" xr:uid="{5A27D528-8936-4A28-9D15-3C4A7289F5B1}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{4C7080C1-A6C6-4B90-B2A5-50046812DA0D}" name="Display" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{4C7080C1-A6C6-4B90-B2A5-50046812DA0D}" name="Display" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{3D5C72E0-791B-42F3-8342-E34CF3D10DEA}" name="Cost (4)"/>
     <tableColumn id="3" xr3:uid="{9915D8C3-2B69-40E5-9B2A-FF20032EDAC1}" name="I/O pins (3)"/>
     <tableColumn id="4" xr3:uid="{39C689E3-3C86-4C21-BE55-4D8AEB373938}" name="Size (2)"/>
     <tableColumn id="5" xr3:uid="{AE67958E-A919-4BCF-A5BF-DE606A4F107A}" name="Quality/Resolution (2)"/>
     <tableColumn id="6" xr3:uid="{A33E3EF9-41D1-455D-85D3-46B5A6D93A77}" name="Brightness (2)"/>
-    <tableColumn id="7" xr3:uid="{22CD5F7B-CEF2-4CC3-B058-58FCC996863E}" name="Total" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{22CD5F7B-CEF2-4CC3-B058-58FCC996863E}" name="Total" dataDxfId="1">
       <calculatedColumnFormula>Table3568910[[#This Row],[Cost (4)]]*4 + Table3568910[[#This Row],[I/O pins (3)]]*3 + Table3568910[[#This Row],[Size (2)]]*2 + Table3568910[[#This Row],[Quality/Resolution (2)]]*2 +Table3568910[[#This Row],[Brightness (2)]]*2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -572,7 +579,7 @@
   <autoFilter ref="K78:L89" xr:uid="{58F5343D-8319-49CE-81A3-8D55F0CA708E}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B7928CE6-C184-4A32-B1F8-07C07657F304}" name="Component:"/>
-    <tableColumn id="2" xr3:uid="{34BCF8D6-F279-4C70-B8CE-AB1DE2A1967B}" name="Estimated Price:" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{34BCF8D6-F279-4C70-B8CE-AB1DE2A1967B}" name="Estimated Price:" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -880,14 +887,16 @@
   </sheetPr>
   <dimension ref="B2:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="8" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="10" width="12.7109375" customWidth="1"/>
     <col min="11" max="11" width="30.7109375" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
@@ -895,15 +904,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -947,7 +956,7 @@
       <c r="G4">
         <v>5</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="8">
         <f>Table3[[#This Row],[Cost (2)]]*2 + Table3[[#This Row],[Speed (1)]] + Table3[[#This Row],[I/O (3)]]*3 + Table3[[#This Row],[Memory (1)]] + Table3[[#This Row],[Simplicity (3)]] *3</f>
         <v>38</v>
       </c>
@@ -1001,15 +1010,15 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -1053,7 +1062,7 @@
       <c r="G15">
         <v>3</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="8">
         <f>Table35[[#This Row],[Cost (4)]]*4 + Table35[[#This Row],[Power Consumption (2)]]*2 + Table35[[#This Row],[Size (4)]]*4 + Table35[[#This Row],[Noise (1)]] + Table35[[#This Row],[Heat Output (3)]]*3</f>
         <v>60</v>
       </c>
@@ -1131,15 +1140,15 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -1172,7 +1181,7 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>5</v>
@@ -1183,9 +1192,9 @@
       <c r="G25">
         <v>2</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="8">
         <f>Table356[[#This Row],[Cost (5)]]*5 + Table356[[#This Row],[Power Consumption (2)]]*2 + Table356[[#This Row],[Size (4)]]*4 + Table356[[#This Row],[Simplicity (3)]]*3 + Table356[[#This Row],[cooling(3)]]*3</f>
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1261,15 +1270,15 @@
       </c>
     </row>
     <row r="35" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
     </row>
     <row r="36" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
@@ -1311,7 +1320,7 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38">
         <v>4</v>
@@ -1319,9 +1328,9 @@
       <c r="E38">
         <v>4</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="14">
         <f>Table3567[[#This Row],[Cost (2)]]*2 + Table3567[[#This Row],[Response time (2)]]*2 + Table3567[[#This Row],[Accuracy(5)]]*5</f>
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1337,7 +1346,7 @@
       <c r="E39">
         <v>3</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="8">
         <f>Table3567[[#This Row],[Cost (2)]]*2 + Table3567[[#This Row],[Response time (2)]]*2 + Table3567[[#This Row],[Accuracy(5)]]*5</f>
         <v>35</v>
       </c>
@@ -1361,15 +1370,15 @@
       </c>
     </row>
     <row r="44" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
     </row>
     <row r="45" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
@@ -1437,7 +1446,7 @@
       <c r="G47">
         <v>5</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H47" s="8">
         <f>Table3568[[#This Row],[Cost (3)]]*3 + Table3568[[#This Row],[Simplicity (2)]]*2 + Table3568[[#This Row],[Size (4)]]*4 + Table3568[[#This Row],[Brightness (2)]]*2 + Table3568[[#This Row],[Heat Output(3)]]*3</f>
         <v>61</v>
       </c>
@@ -1496,15 +1505,15 @@
       </c>
     </row>
     <row r="56" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
     </row>
     <row r="57" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
@@ -1548,7 +1557,7 @@
       <c r="G58">
         <v>3</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H58" s="8">
         <f>Table35689[[#This Row],[Cost (4)]]*4 + Table35689[[#This Row],[Power Consumption (2)]]*2 + Table35689[[#This Row],[Size (5)]]*5 + Table35689[[#This Row],[Simplicity (3)]]*3 + Table35689[[#This Row],[Humidity Output(3)]]*3</f>
         <v>67</v>
       </c>
@@ -1626,15 +1635,15 @@
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
     </row>
     <row r="68" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
@@ -1702,7 +1711,7 @@
       <c r="G70">
         <v>2</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="8">
         <f>Table3568910[[#This Row],[Cost (4)]]*4 + Table3568910[[#This Row],[I/O pins (3)]]*3 + Table3568910[[#This Row],[Size (2)]]*2 + Table3568910[[#This Row],[Quality/Resolution (2)]]*2 +Table3568910[[#This Row],[Brightness (2)]]*2</f>
         <v>53</v>
       </c>
@@ -1760,10 +1769,10 @@
       <c r="B76" s="4"/>
     </row>
     <row r="77" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K77" s="8" t="s">
+      <c r="K77" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="L77" s="9"/>
+      <c r="L77" s="10"/>
     </row>
     <row r="78" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K78" s="7" t="s">
